--- a/N-back/con_back.xlsx
+++ b/N-back/con_back.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\5 心理学工具箱\psychpyProgram\cog_effort_discount_paradigm\N-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777FF336-C50B-4333-866C-AEF75FCEA4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9369B5B4-2302-4EEE-93AF-768CEC644CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,7 +538,7 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A41" ca="1" si="6">RAND()</f>
-        <v>0.82640333687050538</v>
+        <v>0.47595061163865293</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -601,7 +601,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94203812481190585</v>
+        <v>0.27031293425433112</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D41" ca="1" si="7">RAND()</f>
-        <v>0.12790102811259396</v>
+        <v>0.92999570765318051</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -665,7 +665,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61421199563588036</v>
+        <v>0.2047811655792946</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45880541373134831</v>
+        <v>0.71695733448099563</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G41" ca="1" si="8">RAND()</f>
-        <v>0.62520091701782499</v>
+        <v>0.50808327407454767</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -730,7 +730,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40898944255208747</v>
+        <v>0.93879737283443443</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38343825641818563</v>
+        <v>0.59340733109703414</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.36955183574386785</v>
+        <v>9.1677177814932009E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -763,14 +763,14 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J41" ca="1" si="9">RAND()</f>
-        <v>0.43676723659023897</v>
+        <v>0.12015278149010988</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
-        <v>n</v>
+        <v>m</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -796,7 +796,7 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89655603392101613</v>
+        <v>0.12442203201178803</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.59294269047339088</v>
+        <v>0.13378629944695075</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14458228969588971</v>
+        <v>0.7788611571723727</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -829,7 +829,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17458142753315598</v>
+        <v>0.18899605858876278</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="M7">
         <f t="shared" ref="M7:M41" ca="1" si="10">RAND()</f>
-        <v>0.76084686446438898</v>
+        <v>0.42693646313048084</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -863,7 +863,7 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34872040695165518</v>
+        <v>0.40148913594155922</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45496752454694267</v>
+        <v>0.4833495477094194</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,18 +885,18 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6962319247079711E-2</v>
+        <v>8.1354371893988642E-2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H8=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.9196231173615701</v>
+        <v>0.19611838477215371</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -907,7 +907,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.52255660032770634</v>
+        <v>0.93002220462644103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="P8">
         <f t="shared" ref="P8:P41" ca="1" si="11">RAND()</f>
-        <v>0.30197554261712012</v>
+        <v>0.85677096728305502</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -931,7 +931,7 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65490405459505718</v>
+        <v>0.10312936838737485</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -942,7 +942,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54184813686776379</v>
+        <v>0.64375687863693432</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4280117567073628</v>
+        <v>0.18330475489980969</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="9"/>
-        <v>6.3498455419180866E-3</v>
+        <v>0.40097564266178565</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.73374655377272857</v>
+        <v>0.97799843684990306</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8990044870690781E-2</v>
+        <v>0.24692058326602351</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -999,7 +999,7 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51213223932905894</v>
+        <v>0.68600712850197387</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67417125498888575</v>
+        <v>0.46879617366063076</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.62588570384764119</v>
+        <v>9.694739154340426E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1893285699739139</v>
+        <v>0.19423675365115811</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.95422768017091486</v>
+        <v>0.80701648746689802</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.80136173728789217</v>
+        <v>0.5480713538241877</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1067,7 +1067,7 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91538127446074047</v>
+        <v>0.3042101334424856</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30194532361646254</v>
+        <v>0.31985865597270191</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.77049838325398701</v>
+        <v>0.14575790909190178</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29048445493473596</v>
+        <v>0.18992508853152323</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1639221849736332E-3</v>
+        <v>0.13538939070176204</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46696004516431155</v>
+        <v>2.5385309275944734E-2</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1135,7 +1135,7 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72183116724478424</v>
+        <v>0.55063790902390664</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0924149229732456E-2</v>
+        <v>0.88642154801011586</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27564875076392892</v>
+        <v>0.71759526670120644</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23899262193312476</v>
+        <v>0.17226867647354227</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.87182770771114237</v>
+        <v>0.81570239162433833</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>3.6727873590171156E-2</v>
+        <v>0.95573311206189393</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95743696067976614</v>
+        <v>0.29381120066561184</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29151985436865147</v>
+        <v>0.59257066194163754</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,18 +1225,18 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13661466882702</v>
+        <v>0.73998557638693974</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H13=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.69524646068649409</v>
+        <v>0.92321437002156415</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13152893357998774</v>
+        <v>0.60592820997793917</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46396929485724159</v>
+        <v>0.84856848436552135</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1271,7 +1271,7 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63177354487724735</v>
+        <v>5.8662278525989375E-2</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28533544869595784</v>
+        <v>0.9422226950591811</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.83627571724588423</v>
+        <v>0.19140169648510652</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0341795570111989E-2</v>
+        <v>0.30524769251401473</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="10"/>
-        <v>7.383168728459899E-3</v>
+        <v>0.82352269554700197</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.65400983791269995</v>
+        <v>0.10403592694229691</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62469691058799703</v>
+        <v>0.50751748387066753</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65346612460583575</v>
+        <v>5.2033581805971396E-3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7892936626282302</v>
+        <v>0.20097476713456597</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21305705734014546</v>
+        <v>0.66258752609949412</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7366711859113426E-2</v>
+        <v>0.88214863309988067</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24234010693843344</v>
+        <v>0.58034839495907564</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22133562043646016</v>
+        <v>0.43174996420857392</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35615722392172433</v>
+        <v>0.40987090226333811</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3497419319136198</v>
+        <v>0.36660499212512365</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1440,18 +1440,18 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.63198281052723038</v>
+        <v>0.31136698295479703</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>n</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.37320484632013962</v>
+        <v>0.46288261028912947</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>3.0907804890411117E-2</v>
+        <v>0.6507615867872224</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2212373881066845E-2</v>
+        <v>0.36075606969101826</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85049845592096296</v>
+        <v>0.3529428892759322</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.83517606066307493</v>
+        <v>0.21956430696078411</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="9"/>
-        <v>9.7002303502482068E-2</v>
+        <v>0.42932574427777881</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47981784238569181</v>
+        <v>0.50261080272602443</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.90639198627283757</v>
+        <v>0.55286805235843983</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1543,7 +1543,7 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41790070543191549</v>
+        <v>0.90852924565159321</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73594947640576214</v>
+        <v>0.565847810245377</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1565,18 +1565,18 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52209894186778694</v>
+        <v>0.29690863570006465</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>m</v>
+        <v>n</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32644239874498748</v>
+        <v>0.93661529716959424</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10326637505891778</v>
+        <v>0.94121976242311045</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.69470658160053733</v>
+        <v>0.42207270042857248</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4094808135392674E-2</v>
+        <v>9.413636018568039E-2</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17581594748657237</v>
+        <v>0.89427387537644765</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.64197922684638031</v>
+        <v>0.18426363592252715</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8849492110982107E-2</v>
+        <v>0.9713877232854542</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93635419629132388</v>
+        <v>0.69466861152237536</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.90076153736075992</v>
+        <v>0.77356518202347146</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41042230793593215</v>
+        <v>0.8914064234187421</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45092071240209031</v>
+        <v>0.68085898343767293</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31620053519229796</v>
+        <v>7.6268843532618869E-2</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9603805335693281E-2</v>
+        <v>0.61736892347743677</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="10"/>
-        <v>4.292224683901702E-2</v>
+        <v>0.759826186473888</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.67722405814655862</v>
+        <v>3.9563611070417948E-2</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -1747,7 +1747,7 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65511179090174743</v>
+        <v>0.79138421794961278</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74790423073929602</v>
+        <v>0.77355512218197708</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48111086104526035</v>
+        <v>0.13849585327713521</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="9"/>
-        <v>0.71373501095721126</v>
+        <v>0.35960669111725174</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10253425018045159</v>
+        <v>0.24110055704915345</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9593870745658473E-2</v>
+        <v>0.9039280898196036</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1815,7 +1815,7 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58874080970628351</v>
+        <v>0.51478040450350115</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7527007655303275E-2</v>
+        <v>0.39398644569459784</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19895542550279277</v>
+        <v>6.1716599258498372E-2</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9673266005269325E-2</v>
+        <v>0.14693255165364416</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="10"/>
-        <v>0.98072560035979206</v>
+        <v>0.99184714144204877</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33492101227956728</v>
+        <v>0.82197452418689954</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60587704382765528</v>
+        <v>0.98301047315101386</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.80456384808785086</v>
+        <v>0.12324656245530818</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42541805112506414</v>
+        <v>0.50603272388010578</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6645680357641689</v>
+        <v>0.58633653112925688</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36259568938531506</v>
+        <v>0.83590097681220576</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25776795547082898</v>
+        <v>0.27045952512646088</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2207797854326796E-2</v>
+        <v>6.171523023979486E-2</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64950144038413693</v>
+        <v>0.16621820869313331</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35785096696383245</v>
+        <v>9.6307342723434219E-2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43194168593483651</v>
+        <v>0.42684778878921847</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="10"/>
-        <v>0.74257292621185322</v>
+        <v>0.53001134065221711</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="11"/>
-        <v>0.83441812683694316</v>
+        <v>0.50598362330596258</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2019,7 +2019,7 @@
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66631280576421159</v>
+        <v>0.36680281683188931</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44378834453366989</v>
+        <v>9.2740898272810623E-2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.89528112790352365</v>
+        <v>0.96037262884064334</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57203860223949721</v>
+        <v>0.90349713995258951</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63381518497479328</v>
+        <v>0.19550013822050138</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22726303824986294</v>
+        <v>0.64629952845715255</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2087,7 +2087,7 @@
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9166230986040157</v>
+        <v>0.96349784353245793</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>1.13163552796266E-2</v>
+        <v>0.7643871437006966</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.66757278051423896</v>
+        <v>3.8911262674466873E-2</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.75638118246311459</v>
+        <v>0.9914426362683415</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21165098862590515</v>
+        <v>0.1815815566011757</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26537435245067775</v>
+        <v>0.7332423618615721</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2155,7 +2155,7 @@
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81688126408609207</v>
+        <v>0.94905119242378211</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31700059336692799</v>
+        <v>0.79231635365772846</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69176076149821553</v>
+        <v>0.39953222997237459</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17927151405640074</v>
+        <v>0.13524822215468946</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="10"/>
-        <v>0.22907350393068437</v>
+        <v>0.96851564551625713</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.56248136801562165</v>
+        <v>0.35209064479466745</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9649815134290147E-2</v>
+        <v>0.57365056596543362</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.70945334008350758</v>
+        <v>0.44150755968999333</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9467469054122758</v>
+        <v>0.92603582871487478</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51115490238182038</v>
+        <v>0.16713701787568258</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36198117011237996</v>
+        <v>0.5432948367013587</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.40509462790288231</v>
+        <v>0.15915331630936602</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2291,7 +2291,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55225301100163204</v>
+        <v>0.89000788999844438</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.60355224548826236</v>
+        <v>0.52746442009435313</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.84217606654871169</v>
+        <v>0.70332683851898281</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50443439141276769</v>
+        <v>9.9161225325087088E-2</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42285874868624107</v>
+        <v>0.59166486361767245</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8537344349201399</v>
+        <v>0.95806880674854422</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -2359,7 +2359,7 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="6"/>
-        <v>7.9473363488494986E-2</v>
+        <v>0.61537106860350532</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24900501997661417</v>
+        <v>3.6143291179074888E-2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.89236210741875632</v>
+        <v>0.71552898665901221</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28380406490805765</v>
+        <v>0.95891158462376536</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54106344863903721</v>
+        <v>0.38137000593477621</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.12618418972085954</v>
+        <v>0.67477456224421428</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5756815020153643E-2</v>
+        <v>1.0677916910282637E-2</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22072159824737903</v>
+        <v>0.92868860781526608</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.50836875258449177</v>
+        <v>9.5993789019086062E-2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67362014053331276</v>
+        <v>0.97618305314744069</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63740668163870084</v>
+        <v>0.82004582855411934</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61421949921017382</v>
+        <v>0.49064385288793311</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45423170873201935</v>
+        <v>0.47446333017315356</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30664394174848464</v>
+        <v>0.53643359213261887</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51610644579004139</v>
+        <v>0.94180783366768461</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58548240439058863</v>
+        <v>0.46655768488870386</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="10"/>
-        <v>0.96983083446579244</v>
+        <v>0.11572716301185593</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.29119076528007282</v>
+        <v>7.9818362604603177E-2</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2563,7 +2563,7 @@
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44391598568620183</v>
+        <v>0.92381400734676</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5017957228575738E-2</v>
+        <v>0.89150640958876848</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5044648112243848</v>
+        <v>0.5334892421661348</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="9"/>
-        <v>0.92007740226680146</v>
+        <v>6.1387598171014357E-4</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="10"/>
-        <v>0.98824594003089472</v>
+        <v>0.21224841113358295</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49918814529911204</v>
+        <v>0.45014535772843167</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63522883300483091</v>
+        <v>0.36003341645465015</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5768151198259979E-2</v>
+        <v>0.13382730573914403</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27374544255033273</v>
+        <v>0.4576710469160099</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1767194884228234E-2</v>
+        <v>0.81540731161066249</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43298185656955313</v>
+        <v>6.1826464897554501E-2</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32238395262297004</v>
+        <v>4.7744563743163826E-2</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32087403907869838</v>
+        <v>0.46334669612046242</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66947221466384066</v>
+        <v>0.86782882454572507</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="8"/>
-        <v>7.7031916947113976E-2</v>
+        <v>0.62006513409104436</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5499363420781147</v>
+        <v>0.61391274728494938</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="10"/>
-        <v>0.90763631756917873</v>
+        <v>0.64822544224629997</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="11"/>
-        <v>4.4273937964624421E-2</v>
+        <v>9.1540671796174866E-2</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13473189593347101</v>
+        <v>0.9388761653568386</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5020411704465636</v>
+        <v>0.31021718033389301</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1777712931663179</v>
+        <v>2.9413092858910028E-2</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="9"/>
-        <v>0.81552279447120413</v>
+        <v>0.58169199688858997</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="10"/>
-        <v>9.1103989560587517E-2</v>
+        <v>0.49372006816088132</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="11"/>
-        <v>0.64840471416235368</v>
+        <v>3.6582364274574508E-2</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2835,7 +2835,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58062033913256972</v>
+        <v>0.94542352862433487</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18394292625461828</v>
+        <v>0.2056922980395457</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9938330624946784</v>
+        <v>0.70194943192867787</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="9"/>
-        <v>0.7916446938037105</v>
+        <v>0.50160370876203797</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="10"/>
-        <v>9.8660292904263591E-2</v>
+        <v>0.91644306387235408</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96221350410539574</v>
+        <v>0.69520015876058738</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99377632272421756</v>
+        <v>0.92890955873290426</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>0.97634291465162504</v>
+        <v>0.78247165989122791</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90891483602036005</v>
+        <v>0.94541437806839324</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="9"/>
-        <v>0.69678699528037813</v>
+        <v>0.7402236200299539</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17480821245600409</v>
+        <v>0.96761395127543337</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4036540883652272</v>
+        <v>0.54328027963829262</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -2971,7 +2971,7 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4898815177189122</v>
+        <v>0.59535751777679924</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>5.240682856227552E-2</v>
+        <v>0.22621222052081691</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>8.5490690497814437E-2</v>
+        <v>0.73115417101272617</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68158281606703586</v>
+        <v>0.21415724822605842</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21715001810399337</v>
+        <v>0.25532485102417757</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="11"/>
-        <v>0.15941890165262307</v>
+        <v>0.75190288688841578</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22847687175090892</v>
+        <v>0.6981662741488891</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>0.98011957122743898</v>
+        <v>0.49720470902131919</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21240882927783389</v>
+        <v>0.23230863481998687</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29890764816735593</v>
+        <v>0.92831652393145792</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9449853719499495E-2</v>
+        <v>0.41016634472221658</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0859444703241738E-3</v>
+        <v>3.5969274718849586E-2</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -3107,7 +3107,7 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3206649928207409</v>
+        <v>0.58145414354224634</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27963456675828158</v>
+        <v>0.50165760622151068</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17583938452695336</v>
+        <v>0.70577221798268053</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20118621746584875</v>
+        <v>0.9503481638274629</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45742545449327321</v>
+        <v>0.56921172322710201</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59164064327173149</v>
+        <v>0.47318198365502251</v>
       </c>
       <c r="Q41">
         <v>0</v>

--- a/N-back/con_back.xlsx
+++ b/N-back/con_back.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryougi mana\Desktop\5 心理学工具箱\psychpyProgram\cog_effort_discount_paradigm\N-back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9369B5B4-2302-4EEE-93AF-768CEC644CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F77B3-75C9-45C2-963C-71D22F22BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C41" si="0">IF(B2=0, "n", "m")</f>
+        <f>IF(B2=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D2">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F41" si="1">IF(E2=0, "n", "m")</f>
+        <f>IF(E2=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G2">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I41" si="2">IF(H2=0, "n", "m")</f>
+        <f>IF(H2=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J2">
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L41" si="3">IF(K2=0, "n", "m")</f>
+        <f>IF(K2=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M2">
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O41" si="4">IF(N2=0, "n", "m")</f>
+        <f>IF(N2=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P2">
@@ -531,20 +531,20 @@
         <v>0</v>
       </c>
       <c r="R2" t="str">
-        <f t="shared" ref="R2:R41" si="5">IF(Q2=0, "n", "m")</f>
+        <f>IF(Q2=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A41" ca="1" si="6">RAND()</f>
-        <v>0.47595061163865293</v>
+        <f ca="1">RAND()</f>
+        <v>0.39742651603984003</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B3=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D3">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E3=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G3">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H3=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J3">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K3=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M3">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N3=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P3">
@@ -594,31 +594,31 @@
         <v>0</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q3=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.27031293425433112</v>
+        <f ca="1">RAND()</f>
+        <v>0.37284033169350728</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B4=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D41" ca="1" si="7">RAND()</f>
-        <v>0.92999570765318051</v>
+        <f ca="1">RAND()</f>
+        <v>0.32404048909621841</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E4=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G4">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H4=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J4">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K4=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M4">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N4=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P4">
@@ -658,42 +658,42 @@
         <v>0</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q4=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.2047811655792946</v>
+        <f ca="1">RAND()</f>
+        <v>0.63599769981230914</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B5=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.71695733448099563</v>
+        <f ca="1">RAND()</f>
+        <v>0.34100115010121468</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E5=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G41" ca="1" si="8">RAND()</f>
-        <v>0.50808327407454767</v>
+        <f ca="1">RAND()</f>
+        <v>0.3713387769692027</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H5=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J5">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K5=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M5">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N5=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P5">
@@ -723,54 +723,54 @@
         <v>0</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q5=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.93879737283443443</v>
+        <f ca="1">RAND()</f>
+        <v>0.55152015012264211</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.59340733109703414</v>
+        <f ca="1">RAND()</f>
+        <v>0.11341285762004005</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E6=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.1677177814932009E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.54713901989700742</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H6=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J41" ca="1" si="9">RAND()</f>
-        <v>0.12015278149010988</v>
+        <f ca="1">RAND()</f>
+        <v>0.95567757597527458</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
+        <f>IF(K6=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N6=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P6">
@@ -789,64 +789,64 @@
         <v>0</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q6=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.12442203201178803</v>
+        <f ca="1">RAND()</f>
+        <v>0.74332944332592066</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.13378629944695075</v>
+        <f ca="1">RAND()</f>
+        <v>0.54684532037978872</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E7=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.7788611571723727</v>
+        <f ca="1">RAND()</f>
+        <v>7.1587766734334535E-3</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H7=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18899605858876278</v>
+        <f ca="1">RAND()</f>
+        <v>0.47652701505990136</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K7=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M41" ca="1" si="10">RAND()</f>
-        <v>0.42693646313048084</v>
+        <f ca="1">RAND()</f>
+        <v>0.50857387260108211</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N7=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P7">
@@ -856,2325 +856,2325 @@
         <v>0</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q7=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.40148913594155922</v>
+        <f ca="1">RAND()</f>
+        <v>0.7589098678514542</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.4833495477094194</v>
+        <f ca="1">RAND()</f>
+        <v>0.37895679136595306</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E8=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="8"/>
-        <v>8.1354371893988642E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.693201780065275</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="str">
         <f>IF(H8=0, "n", "m")</f>
-        <v>m</v>
+        <v>n</v>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.19611838477215371</v>
+        <f ca="1">RAND()</f>
+        <v>0.14642128776860575</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K8=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.93002220462644103</v>
+        <f ca="1">RAND()</f>
+        <v>0.79112137518862702</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f>IF(N8=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P41" ca="1" si="11">RAND()</f>
-        <v>0.85677096728305502</v>
+        <f ca="1">RAND()</f>
+        <v>3.2189492288719812E-2</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q8=0, "n", "m")</f>
         <v>m</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.10312936838737485</v>
+        <f ca="1">RAND()</f>
+        <v>0.20150103279683151</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.64375687863693432</v>
+        <f ca="1">RAND()</f>
+        <v>0.72497236809302978</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E9=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.18330475489980969</v>
+        <f ca="1">RAND()</f>
+        <v>0.63316883085968212</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H9=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.40097564266178565</v>
+        <f ca="1">RAND()</f>
+        <v>0.79228732971420801</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K9=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.97799843684990306</v>
+        <f ca="1">RAND()</f>
+        <v>0.33614546064019513</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N9=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P9">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.24692058326602351</v>
+        <f ca="1">RAND()</f>
+        <v>0.52295804725331585</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q9=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.68600712850197387</v>
+        <f ca="1">RAND()</f>
+        <v>4.5185130807352536E-2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B10=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.46879617366063076</v>
+        <f ca="1">RAND()</f>
+        <v>0.14300649265399124</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
+        <f>IF(E10=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.694739154340426E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.83195655477011587</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H10=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.19423675365115811</v>
+        <f ca="1">RAND()</f>
+        <v>7.5437865573965146E-3</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K10=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.80701648746689802</v>
+        <f ca="1">RAND()</f>
+        <v>0.2545159670625089</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N10=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P10">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.5480713538241877</v>
+        <f ca="1">RAND()</f>
+        <v>7.4560023983575641E-2</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q10=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.3042101334424856</v>
+        <f ca="1">RAND()</f>
+        <v>0.60343141754258411</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B11=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.31985865597270191</v>
+        <f ca="1">RAND()</f>
+        <v>0.49933163278654757</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
+        <f>IF(E11=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.14575790909190178</v>
+        <f ca="1">RAND()</f>
+        <v>0.22579489433624589</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H11=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.18992508853152323</v>
+        <f ca="1">RAND()</f>
+        <v>0.65617515404594351</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
+        <f>IF(K11=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.13538939070176204</v>
+        <f ca="1">RAND()</f>
+        <v>0.61327371578780765</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N11=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P11">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.5385309275944734E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.69519595085239283</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q11=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.55063790902390664</v>
+        <f ca="1">RAND()</f>
+        <v>0.38201112656593095</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.88642154801011586</v>
+        <f ca="1">RAND()</f>
+        <v>0.39343784648220637</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E12=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.71759526670120644</v>
+        <f ca="1">RAND()</f>
+        <v>0.57710504426715936</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H12=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.17226867647354227</v>
+        <f ca="1">RAND()</f>
+        <v>0.19778365065818737</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K12=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.81570239162433833</v>
+        <f ca="1">RAND()</f>
+        <v>0.32093053612181144</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f>IF(N12=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="P12">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.95573311206189393</v>
+        <f ca="1">RAND()</f>
+        <v>0.9855376139082378</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q12=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.29381120066561184</v>
+        <f ca="1">RAND()</f>
+        <v>0.56793542089890692</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B13=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.59257066194163754</v>
+        <f ca="1">RAND()</f>
+        <v>0.16088907214985848</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E13=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.73998557638693974</v>
+        <f ca="1">RAND()</f>
+        <v>0.44254354689048792</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="str">
         <f>IF(H13=0, "n", "m")</f>
-        <v>m</v>
+        <v>n</v>
       </c>
       <c r="J13">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.92321437002156415</v>
+        <f ca="1">RAND()</f>
+        <v>0.80430589193776192</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K13=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.60592820997793917</v>
+        <f ca="1">RAND()</f>
+        <v>0.588777531555984</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N13=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P13">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.84856848436552135</v>
+        <f ca="1">RAND()</f>
+        <v>0.75258473885329291</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q13=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.8662278525989375E-2</v>
+        <f ca="1">RAND()</f>
+        <v>7.8395718446171436E-2</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.9422226950591811</v>
+        <f ca="1">RAND()</f>
+        <v>2.1969342064531272E-2</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E14=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.19140169648510652</v>
+        <f ca="1">RAND()</f>
+        <v>0.9011826878914182</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H14=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.30524769251401473</v>
+        <f ca="1">RAND()</f>
+        <v>0.81974027076991063</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K14=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.82352269554700197</v>
+        <f ca="1">RAND()</f>
+        <v>0.29236391576499565</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N14=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P14">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.10403592694229691</v>
+        <f ca="1">RAND()</f>
+        <v>0.89861929402242791</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q14=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.50751748387066753</v>
+        <f ca="1">RAND()</f>
+        <v>0.93780839294014484</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B15=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.2033581805971396E-3</v>
+        <f ca="1">RAND()</f>
+        <v>0.25238245193100917</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E15=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.20097476713456597</v>
+        <f ca="1">RAND()</f>
+        <v>0.97590807877039398</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H15=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.66258752609949412</v>
+        <f ca="1">RAND()</f>
+        <v>0.93841732941630085</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K15=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.88214863309988067</v>
+        <f ca="1">RAND()</f>
+        <v>0.22602953094363731</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N15=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P15">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.58034839495907564</v>
+        <f ca="1">RAND()</f>
+        <v>0.85054690965718249</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q15=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.43174996420857392</v>
+        <f ca="1">RAND()</f>
+        <v>0.64434618580567771</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B16=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.40987090226333811</v>
+        <f ca="1">RAND()</f>
+        <v>0.45280774695267134</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E16=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.36660499212512365</v>
+        <f ca="1">RAND()</f>
+        <v>0.84142344837082017</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H16=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.31136698295479703</v>
+        <f ca="1">RAND()</f>
+        <v>0.11570566299571905</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K16=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.46288261028912947</v>
+        <f ca="1">RAND()</f>
+        <v>0.80553402482454428</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N16=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P16">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.6507615867872224</v>
+        <f ca="1">RAND()</f>
+        <v>0.71754213183177429</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q16=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.36075606969101826</v>
+        <f ca="1">RAND()</f>
+        <v>0.78527249611703298</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B17=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.3529428892759322</v>
+        <f ca="1">RAND()</f>
+        <v>0.16430001627397639</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E17=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.21956430696078411</v>
+        <f ca="1">RAND()</f>
+        <v>0.38920212055552716</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H17=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.42932574427777881</v>
+        <f ca="1">RAND()</f>
+        <v>0.28276433914671784</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K17=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.50261080272602443</v>
+        <f ca="1">RAND()</f>
+        <v>0.14785240463669236</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N17=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P17">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.55286805235843983</v>
+        <f ca="1">RAND()</f>
+        <v>0.45208746452880633</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q17=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.90852924565159321</v>
+        <f ca="1">RAND()</f>
+        <v>6.5170238815740023E-2</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B18=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.565847810245377</v>
+        <f ca="1">RAND()</f>
+        <v>0.53587133038259926</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E18=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.29690863570006465</v>
+        <f ca="1">RAND()</f>
+        <v>2.3753409542769832E-2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H18=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.93661529716959424</v>
+        <f ca="1">RAND()</f>
+        <v>0.71890052912797697</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K18=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.94121976242311045</v>
+        <f ca="1">RAND()</f>
+        <v>0.71393379820464253</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N18=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P18">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.42207270042857248</v>
+        <f ca="1">RAND()</f>
+        <v>0.16333057723272737</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q18=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.413636018568039E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.2907906083792805</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.89427387537644765</v>
+        <f ca="1">RAND()</f>
+        <v>0.86865707197866693</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E19=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.18426363592252715</v>
+        <f ca="1">RAND()</f>
+        <v>0.58206802379239875</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H19=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.9713877232854542</v>
+        <f ca="1">RAND()</f>
+        <v>7.4644057129109043E-2</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K19=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.69466861152237536</v>
+        <f ca="1">RAND()</f>
+        <v>0.12560015329090846</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N19=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P19">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.77356518202347146</v>
+        <f ca="1">RAND()</f>
+        <v>0.10518828242675238</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q19=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.8914064234187421</v>
+        <f ca="1">RAND()</f>
+        <v>0.16999003920511357</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B20=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.68085898343767293</v>
+        <f ca="1">RAND()</f>
+        <v>0.15193366460938484</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E20=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G20">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.6268843532618869E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.33731079415967846</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H20=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.61736892347743677</v>
+        <f ca="1">RAND()</f>
+        <v>0.44211942164673346</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K20=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M20">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.759826186473888</v>
+        <f ca="1">RAND()</f>
+        <v>0.54053367521385298</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N20=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P20">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.9563611070417948E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.68137109450518352</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q20=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.79138421794961278</v>
+        <f ca="1">RAND()</f>
+        <v>0.58791843809548916</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.77355512218197708</v>
+        <f ca="1">RAND()</f>
+        <v>0.52139639983662267</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E21=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.13849585327713521</v>
+        <f ca="1">RAND()</f>
+        <v>0.29456754692866272</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H21=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.35960669111725174</v>
+        <f ca="1">RAND()</f>
+        <v>0.25945910014080908</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K21=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M21">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.24110055704915345</v>
+        <f ca="1">RAND()</f>
+        <v>0.29443369303275968</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f>IF(N21=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="P21">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.9039280898196036</v>
+        <f ca="1">RAND()</f>
+        <v>0.20185744377909709</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q21=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.51478040450350115</v>
+        <f ca="1">RAND()</f>
+        <v>0.67496983414571554</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B22=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.39398644569459784</v>
+        <f ca="1">RAND()</f>
+        <v>0.24818282342744469</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E22=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="8"/>
-        <v>6.1716599258498372E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.9837699674630056</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H22=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.14693255165364416</v>
+        <f ca="1">RAND()</f>
+        <v>0.74544019233004188</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K22=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M22">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.99184714144204877</v>
+        <f ca="1">RAND()</f>
+        <v>0.59411549150593512</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N22=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P22">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.82197452418689954</v>
+        <f ca="1">RAND()</f>
+        <v>0.25977140259608711</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q22=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.98301047315101386</v>
+        <f ca="1">RAND()</f>
+        <v>2.2401323453319577E-2</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B23=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.12324656245530818</v>
+        <f ca="1">RAND()</f>
+        <v>0.292398089892276</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E23=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.50603272388010578</v>
+        <f ca="1">RAND()</f>
+        <v>0.77689677216217279</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H23=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.58633653112925688</v>
+        <f ca="1">RAND()</f>
+        <v>0.33111483485962234</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K23=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M23">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.83590097681220576</v>
+        <f ca="1">RAND()</f>
+        <v>0.93278124241276184</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N23=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P23">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.27045952512646088</v>
+        <f ca="1">RAND()</f>
+        <v>0.56907114806220593</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q23=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.171523023979486E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.25749682151375131</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16621820869313331</v>
+        <f ca="1">RAND()</f>
+        <v>0.69174570306332517</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E24=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.6307342723434219E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.14164234702397982</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H24=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.42684778878921847</v>
+        <f ca="1">RAND()</f>
+        <v>0.147079979382296</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K24=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M24">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.53001134065221711</v>
+        <f ca="1">RAND()</f>
+        <v>0.25554522492665166</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N24=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P24">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.50598362330596258</v>
+        <f ca="1">RAND()</f>
+        <v>0.64624796531247741</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q24=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.36680281683188931</v>
+        <f ca="1">RAND()</f>
+        <v>0.62942899709831168</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.2740898272810623E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.29549329374353173</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E25=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.96037262884064334</v>
+        <f ca="1">RAND()</f>
+        <v>0.75778174343283544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H25=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.90349713995258951</v>
+        <f ca="1">RAND()</f>
+        <v>0.24158061347693316</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K25=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M25">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.19550013822050138</v>
+        <f ca="1">RAND()</f>
+        <v>0.2171269328962907</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="4"/>
-        <v>m</v>
+        <f>IF(N25=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="P25">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.64629952845715255</v>
+        <f ca="1">RAND()</f>
+        <v>0.11499933441816257</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q25=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.96349784353245793</v>
+        <f ca="1">RAND()</f>
+        <v>0.41439750533764119</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B26=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.7643871437006966</v>
+        <f ca="1">RAND()</f>
+        <v>0.60381706376898658</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E26=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.8911262674466873E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.67937166951222749</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>m</v>
+        <f>IF(H26=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.9914426362683415</v>
+        <f ca="1">RAND()</f>
+        <v>0.7734168548743432</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
+        <f>IF(K26=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="M26">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.1815815566011757</v>
+        <f ca="1">RAND()</f>
+        <v>0.29869322331915882</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N26=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="P26">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.7332423618615721</v>
+        <f ca="1">RAND()</f>
+        <v>0.63194014372649199</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q26=0, "n", "m")</f>
         <v>m</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.94905119242378211</v>
+        <f ca="1">RAND()</f>
+        <v>0.39860197625534866</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B27=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.79231635365772846</v>
+        <f ca="1">RAND()</f>
+        <v>0.88324189465551683</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E27=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.39953222997237459</v>
+        <f ca="1">RAND()</f>
+        <v>0.29352550080300344</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H27=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.13524822215468946</v>
+        <f ca="1">RAND()</f>
+        <v>0.63934892629938933</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K27=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="M27">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.96851564551625713</v>
+        <f ca="1">RAND()</f>
+        <v>0.14333390615894748</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N27=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P27">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.35209064479466745</v>
+        <f ca="1">RAND()</f>
+        <v>0.12834468171849012</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q27=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.57365056596543362</v>
+        <f ca="1">RAND()</f>
+        <v>0.48099997827544527</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B28=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.44150755968999333</v>
+        <f ca="1">RAND()</f>
+        <v>0.94277066098164142</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E28=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.92603582871487478</v>
+        <f ca="1">RAND()</f>
+        <v>0.98087402815447156</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H28=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.16713701787568258</v>
+        <f ca="1">RAND()</f>
+        <v>0.33267084363035648</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
+        <f>IF(K28=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="M28">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.5432948367013587</v>
+        <f ca="1">RAND()</f>
+        <v>0.27640908568111389</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N28=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P28">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.15915331630936602</v>
+        <f ca="1">RAND()</f>
+        <v>0.59244763719522364</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q28=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.89000788999844438</v>
+        <f ca="1">RAND()</f>
+        <v>0.84403875788579419</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B29=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.52746442009435313</v>
+        <f ca="1">RAND()</f>
+        <v>0.13167922994602677</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E29=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.70332683851898281</v>
+        <f ca="1">RAND()</f>
+        <v>0.97985344645911554</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H29=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="9"/>
-        <v>9.9161225325087088E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.47157760322952469</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K29=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="M29">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.59166486361767245</v>
+        <f ca="1">RAND()</f>
+        <v>0.95884746204061533</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N29=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P29">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.95806880674854422</v>
+        <f ca="1">RAND()</f>
+        <v>0.1085641896533861</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q29=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.61537106860350532</v>
+        <f ca="1">RAND()</f>
+        <v>0.94026718465991344</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B30=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.6143291179074888E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.13153062449785791</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E30=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.71552898665901221</v>
+        <f ca="1">RAND()</f>
+        <v>0.54758669685791039</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>m</v>
+        <f>IF(H30=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.95891158462376536</v>
+        <f ca="1">RAND()</f>
+        <v>0.29922482687446517</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K30=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M30">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.38137000593477621</v>
+        <f ca="1">RAND()</f>
+        <v>0.57647316224001943</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N30=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="P30">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.67477456224421428</v>
+        <f ca="1">RAND()</f>
+        <v>0.43178078718376167</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q30=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" ca="1" si="6"/>
-        <v>1.0677916910282637E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.7009967874671631</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.92868860781526608</v>
+        <f ca="1">RAND()</f>
+        <v>0.15574207228409309</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E31=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="8"/>
-        <v>9.5993789019086062E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.86300423343162758</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>m</v>
+        <f>IF(H31=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.97618305314744069</v>
+        <f ca="1">RAND()</f>
+        <v>0.58970983894926154</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K31=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M31">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.82004582855411934</v>
+        <f ca="1">RAND()</f>
+        <v>0.99560668478639591</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N31=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P31">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.49064385288793311</v>
+        <f ca="1">RAND()</f>
+        <v>0.53334148538010917</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q31=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.47446333017315356</v>
+        <f ca="1">RAND()</f>
+        <v>0.64026624294768031</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B32=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.53643359213261887</v>
+        <f ca="1">RAND()</f>
+        <v>0.64935420486094231</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E32=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.94180783366768461</v>
+        <f ca="1">RAND()</f>
+        <v>1.4049348389917116E-2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>m</v>
+        <f>IF(H32=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.46655768488870386</v>
+        <f ca="1">RAND()</f>
+        <v>0.40704404593504262</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K32=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M32">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.11572716301185593</v>
+        <f ca="1">RAND()</f>
+        <v>0.33330975967690757</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N32=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P32">
-        <f t="shared" ca="1" si="11"/>
-        <v>7.9818362604603177E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.55113901687262035</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q32=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.92381400734676</v>
+        <f ca="1">RAND()</f>
+        <v>0.92634713087593212</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.89150640958876848</v>
+        <f ca="1">RAND()</f>
+        <v>0.12277847984512891</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E33=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.5334892421661348</v>
+        <f ca="1">RAND()</f>
+        <v>7.4248341707151555E-3</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H33=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J33">
-        <f t="shared" ca="1" si="9"/>
-        <v>6.1387598171014357E-4</v>
+        <f ca="1">RAND()</f>
+        <v>3.2766756818092491E-2</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
+        <f>IF(K33=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="M33">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.21224841113358295</v>
+        <f ca="1">RAND()</f>
+        <v>0.31956238425977412</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N33=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="P33">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.45014535772843167</v>
+        <f ca="1">RAND()</f>
+        <v>0.60138888772275712</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q33=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.36003341645465015</v>
+        <f ca="1">RAND()</f>
+        <v>0.35496955680185249</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>n</v>
+        <f>IF(B34=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.13382730573914403</v>
+        <f ca="1">RAND()</f>
+        <v>6.6736798838801126E-2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E34=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.4576710469160099</v>
+        <f ca="1">RAND()</f>
+        <v>0.76228701372369467</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>m</v>
+        <f>IF(H34=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.81540731161066249</v>
+        <f ca="1">RAND()</f>
+        <v>0.96964140520263065</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K34=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M34">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.1826464897554501E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.17223419129355211</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N34=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="P34">
-        <f t="shared" ca="1" si="11"/>
-        <v>4.7744563743163826E-2</v>
+        <f ca="1">RAND()</f>
+        <v>5.3374244630605139E-3</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q34=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.46334669612046242</v>
+        <f ca="1">RAND()</f>
+        <v>0.27942224842115215</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B35=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.86782882454572507</v>
+        <f ca="1">RAND()</f>
+        <v>0.44128035483740979</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
+        <f>IF(E35=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.62006513409104436</v>
+        <f ca="1">RAND()</f>
+        <v>0.10364302224347133</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H35=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J35">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.61391274728494938</v>
+        <f ca="1">RAND()</f>
+        <v>0.80198758346671228</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
+        <f>IF(K35=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="M35">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.64822544224629997</v>
+        <f ca="1">RAND()</f>
+        <v>0.20432827050891589</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N35=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P35">
-        <f t="shared" ca="1" si="11"/>
-        <v>9.1540671796174866E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.55626191418778315</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q35=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.9388761653568386</v>
+        <f ca="1">RAND()</f>
+        <v>0.53450427307595649</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.31021718033389301</v>
+        <f ca="1">RAND()</f>
+        <v>0.61281685997961288</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E36=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.9413092858910028E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.74476092382791204</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>n</v>
+        <f>IF(H36=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.58169199688858997</v>
+        <f ca="1">RAND()</f>
+        <v>0.86506913856889023</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K36=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M36">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.49372006816088132</v>
+        <f ca="1">RAND()</f>
+        <v>0.12838620918324595</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N36=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="P36">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.6582364274574508E-2</v>
+        <f ca="1">RAND()</f>
+        <v>0.29669585316197322</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="5"/>
-        <v>m</v>
+        <f>IF(Q36=0, "n", "m")</f>
+        <v>n</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.94542352862433487</v>
+        <f ca="1">RAND()</f>
+        <v>0.80353957821403554</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B37=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.2056922980395457</v>
+        <f ca="1">RAND()</f>
+        <v>0.99430126059832002</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
+        <f>IF(E37=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.70194943192867787</v>
+        <f ca="1">RAND()</f>
+        <v>0.34754441659834079</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H37=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.50160370876203797</v>
+        <f ca="1">RAND()</f>
+        <v>0.95089813630915043</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K37=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="M37">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.91644306387235408</v>
+        <f ca="1">RAND()</f>
+        <v>0.48339775330128165</v>
       </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N37=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P37">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.69520015876058738</v>
+        <f ca="1">RAND()</f>
+        <v>0.17371641005602589</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q37=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.92890955873290426</v>
+        <f ca="1">RAND()</f>
+        <v>0.74724020010463366</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B38=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.78247165989122791</v>
+        <f ca="1">RAND()</f>
+        <v>0.85895737850260578</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>n</v>
+        <f>IF(E38=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.94541437806839324</v>
+        <f ca="1">RAND()</f>
+        <v>1.4058014859045564E-2</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
-        <v>m</v>
+        <f>IF(H38=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.7402236200299539</v>
+        <f ca="1">RAND()</f>
+        <v>0.46137971142585499</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K38=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M38">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.96761395127543337</v>
+        <f ca="1">RAND()</f>
+        <v>0.46875090566319821</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="4"/>
-        <v>n</v>
+        <f>IF(N38=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="P38">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.54328027963829262</v>
+        <f ca="1">RAND()</f>
+        <v>0.4737857422238867</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q38=0, "n", "m")</f>
         <v>m</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.59535751777679924</v>
+        <f ca="1">RAND()</f>
+        <v>0.4920239686050969</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B39=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.22621222052081691</v>
+        <f ca="1">RAND()</f>
+        <v>0.48509195207838784</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E39=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.73115417101272617</v>
+        <f ca="1">RAND()</f>
+        <v>0.61284921899916434</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H39=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="J39">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.21415724822605842</v>
+        <f ca="1">RAND()</f>
+        <v>0.73912754914462864</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K39=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M39">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.25532485102417757</v>
+        <f ca="1">RAND()</f>
+        <v>0.67810331657893208</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N39=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P39">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.75190288688841578</v>
+        <f ca="1">RAND()</f>
+        <v>0.9877135448692379</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q39=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.6981662741488891</v>
+        <f ca="1">RAND()</f>
+        <v>0.30084828614376424</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B40=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.49720470902131919</v>
+        <f ca="1">RAND()</f>
+        <v>0.50575308041970191</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>m</v>
+        <f>IF(E40=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.23230863481998687</v>
+        <f ca="1">RAND()</f>
+        <v>6.714676868820102E-3</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H40=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.92831652393145792</v>
+        <f ca="1">RAND()</f>
+        <v>0.19558669413482699</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(K40=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="M40">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.41016634472221658</v>
+        <f ca="1">RAND()</f>
+        <v>0.36143084488426391</v>
       </c>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N40=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="P40">
-        <f t="shared" ca="1" si="11"/>
-        <v>3.5969274718849586E-2</v>
+        <f ca="1">RAND()</f>
+        <v>5.2326412131245892E-2</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(Q40=0, "n", "m")</f>
         <v>n</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.58145414354224634</v>
+        <f ca="1">RAND()</f>
+        <v>0.93760008975463704</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>m</v>
+        <f>IF(B41=0, "n", "m")</f>
+        <v>n</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.50165760622151068</v>
+        <f ca="1">RAND()</f>
+        <v>0.81226566837776459</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(E41=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.70577221798268053</v>
+        <f ca="1">RAND()</f>
+        <v>0.50914827599729295</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(H41=0, "n", "m")</f>
         <v>m</v>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.9503481638274629</v>
+        <f ca="1">RAND()</f>
+        <v>0.20059023524466413</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="3"/>
-        <v>n</v>
+        <f>IF(K41=0, "n", "m")</f>
+        <v>m</v>
       </c>
       <c r="M41">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.56921172322710201</v>
+        <f ca="1">RAND()</f>
+        <v>0.513777536622679</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(N41=0, "n", "m")</f>
         <v>n</v>
       </c>
       <c r="P41">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.47318198365502251</v>
+        <f ca="1">RAND()</f>
+        <v>6.2838922545019993E-2</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="5"/>
-        <v>n</v>
+        <f>IF(Q41=0, "n", "m")</f>
+        <v>m</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:R41">
-    <sortCondition ref="P17:P41"/>
+    <sortCondition ref="P4:P41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
